--- a/classfiers/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
+++ b/classfiers/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9914163090128756</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9956896551724138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999810964083176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9745762711864406</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871244635193133</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9543568464730291</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9766454352441614</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998109640831759</v>
+        <v>0.9912108093926275</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.9956709956709957</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9978308026030369</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.9966918714555767</v>
+        <v>0.999905891210239</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.92</v>
+        <v>0.8523985239852399</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9203187250996016</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9987334593572779</v>
+        <v>0.9981366459627329</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9680550218002922</v>
+        <v>0.9496475243207625</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9835529674605763</v>
+        <v>0.9732449660976931</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9990434782608697</v>
+        <v>0.9978506693131198</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
+++ b/classfiers/greedy/MLP/smote/greedy-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9956896551724138</v>
+        <v>0.9928400954653939</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9999544315333789</v>
       </c>
     </row>
     <row r="3">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9545454545454545</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9912108093926275</v>
+        <v>0.9935520619731146</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9765258215962442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999905891210239</v>
+        <v>0.9951925267714741</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8523985239852399</v>
+        <v>0.8228346456692913</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9203187250996016</v>
+        <v>0.9028077753779699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981366459627329</v>
+        <v>0.9941164350632998</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9496475243207625</v>
+        <v>0.9461638507307798</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.997138300296195</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9732449660976931</v>
+        <v>0.969783575697224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9978506693131198</v>
+        <v>0.9965630910682535</v>
       </c>
     </row>
   </sheetData>
